--- a/datasets/selfservice/AlleghenyCounty/analysis_dataset.xlsx
+++ b/datasets/selfservice/AlleghenyCounty/analysis_dataset.xlsx
@@ -13,173 +13,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="951" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="999" uniqueCount="174">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>400233</t>
+  </si>
+  <si>
+    <t>600388</t>
+  </si>
+  <si>
+    <t>600322</t>
+  </si>
+  <si>
+    <t>600381</t>
+  </si>
+  <si>
+    <t>600602</t>
+  </si>
+  <si>
+    <t>600398</t>
+  </si>
+  <si>
+    <t>600396</t>
+  </si>
+  <si>
+    <t>500901</t>
+  </si>
+  <si>
+    <t>600771</t>
+  </si>
+  <si>
+    <t>600786</t>
+  </si>
+  <si>
+    <t>600604</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600758</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>600727</t>
+  </si>
+  <si>
+    <t>400224</t>
+  </si>
+  <si>
+    <t>600310</t>
+  </si>
+  <si>
+    <t>500025</t>
+  </si>
+  <si>
+    <t>600610</t>
+  </si>
+  <si>
+    <t>600374</t>
+  </si>
+  <si>
+    <t>600687</t>
+  </si>
+  <si>
+    <t>600614</t>
+  </si>
+  <si>
+    <t>500684</t>
+  </si>
+  <si>
+    <t>500221</t>
+  </si>
+  <si>
+    <t>600982</t>
+  </si>
+  <si>
+    <t>400277</t>
+  </si>
+  <si>
+    <t>600320</t>
+  </si>
+  <si>
+    <t>400238</t>
+  </si>
+  <si>
+    <t>600780</t>
+  </si>
+  <si>
+    <t>600682</t>
+  </si>
+  <si>
+    <t>500906</t>
+  </si>
+  <si>
+    <t>600775</t>
+  </si>
+  <si>
     <t>600763</t>
   </si>
   <si>
+    <t>600696</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>600360</t>
+  </si>
+  <si>
+    <t>600326</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>500951</t>
+  </si>
+  <si>
+    <t>400230</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>600611</t>
+  </si>
+  <si>
+    <t>600699</t>
+  </si>
+  <si>
+    <t>600366</t>
+  </si>
+  <si>
+    <t>500355</t>
+  </si>
+  <si>
     <t>600790</t>
   </si>
   <si>
-    <t>600768</t>
-  </si>
-  <si>
-    <t>500901</t>
-  </si>
-  <si>
-    <t>600381</t>
-  </si>
-  <si>
-    <t>600771</t>
+    <t>600380</t>
+  </si>
+  <si>
+    <t>600627</t>
+  </si>
+  <si>
+    <t>500454</t>
+  </si>
+  <si>
+    <t>600739</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>600947</t>
+  </si>
+  <si>
+    <t>500005</t>
   </si>
   <si>
     <t>600640</t>
   </si>
   <si>
-    <t>600326</t>
-  </si>
-  <si>
-    <t>600786</t>
-  </si>
-  <si>
-    <t>600388</t>
-  </si>
-  <si>
-    <t>400238</t>
-  </si>
-  <si>
-    <t>500091</t>
-  </si>
-  <si>
-    <t>600366</t>
-  </si>
-  <si>
-    <t>400277</t>
-  </si>
-  <si>
-    <t>500951</t>
-  </si>
-  <si>
-    <t>400233</t>
-  </si>
-  <si>
-    <t>600383</t>
-  </si>
-  <si>
-    <t>600310</t>
-  </si>
-  <si>
-    <t>500906</t>
-  </si>
-  <si>
-    <t>600374</t>
-  </si>
-  <si>
-    <t>600614</t>
-  </si>
-  <si>
-    <t>500005</t>
-  </si>
-  <si>
-    <t>500221</t>
-  </si>
-  <si>
-    <t>600696</t>
-  </si>
-  <si>
-    <t>600610</t>
-  </si>
-  <si>
-    <t>600309</t>
-  </si>
-  <si>
-    <t>600322</t>
-  </si>
-  <si>
-    <t>600320</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>600739</t>
-  </si>
-  <si>
-    <t>600602</t>
-  </si>
-  <si>
-    <t>500684</t>
-  </si>
-  <si>
-    <t>600380</t>
-  </si>
-  <si>
-    <t>600775</t>
-  </si>
-  <si>
-    <t>600682</t>
-  </si>
-  <si>
-    <t>500355</t>
-  </si>
-  <si>
-    <t>600346</t>
-  </si>
-  <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>600396</t>
-  </si>
-  <si>
-    <t>600360</t>
-  </si>
-  <si>
-    <t>600699</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>400230</t>
-  </si>
-  <si>
-    <t>600758</t>
-  </si>
-  <si>
-    <t>600780</t>
-  </si>
-  <si>
     <t>600672</t>
   </si>
   <si>
-    <t>500454</t>
-  </si>
-  <si>
-    <t>600604</t>
-  </si>
-  <si>
-    <t>600727</t>
-  </si>
-  <si>
-    <t>400224</t>
-  </si>
-  <si>
-    <t>500025</t>
-  </si>
-  <si>
-    <t>600627</t>
-  </si>
-  <si>
-    <t>600687</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
     <t>600619</t>
   </si>
   <si>
@@ -222,15 +231,15 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -243,36 +252,36 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>xylazine; fentanyl</t>
   </si>
   <si>
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>xylazine; fentanyl</t>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>cocaine; fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; crack</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>fentanyl; crack</t>
-  </si>
-  <si>
-    <t>cocaine; fentanyl</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -303,15 +312,15 @@
     <t>color</t>
   </si>
   <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>brown</t>
   </si>
   <si>
@@ -324,6 +333,9 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; chunky; rock</t>
   </si>
   <si>
@@ -333,9 +345,6 @@
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -351,30 +360,30 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>long; unpleasant; hallucinations</t>
+  </si>
+  <si>
+    <t>stronger</t>
   </si>
   <si>
     <t>unpleasant; hallucinations</t>
   </si>
   <si>
+    <t>weird; sedating</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>weird; sedating</t>
-  </si>
-  <si>
-    <t>stronger</t>
-  </si>
-  <si>
-    <t>long; unpleasant; hallucinations</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -408,10 +417,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
     <t>involved in OD</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
   </si>
   <si>
     <t>od</t>
@@ -573,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS56"/>
+  <dimension ref="A1:BS59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -584,214 +593,214 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="R1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="U1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="V1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="W1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="X1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Y1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Z1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA1" t="s">
         <v>106</v>
       </c>
       <c r="AB1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AC1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AD1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AF1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AH1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AI1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AJ1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AL1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AM1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AQ1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AR1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AT1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AU1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AV1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AW1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AX1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AY1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AZ1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BA1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="BB1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="BC1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BE1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BF1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BG1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="BH1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BI1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="BJ1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="BK1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="BL1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="BM1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BN1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="BO1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="BP1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="BQ1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BR1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BS1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -799,31 +808,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1">
-        <v>45354</v>
+        <v>45034</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -832,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -853,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -870,9 +879,11 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -883,15 +894,17 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45370</v>
+        <v>45050</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -901,10 +914,10 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -913,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -961,16 +974,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -978,31 +991,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1">
-        <v>45319</v>
+        <v>45244</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1032,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1049,7 +1062,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -1062,17 +1075,15 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45336</v>
+        <v>45260</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1082,10 +1093,10 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1115,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1142,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -1159,31 +1170,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1">
-        <v>45328</v>
+        <v>45271</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1213,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1230,10 +1241,12 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1243,28 +1256,30 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45336</v>
+        <v>45294</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1321,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="BP4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -1338,31 +1353,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1">
-        <v>45041</v>
+        <v>45263</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1371,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1392,24 +1407,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -1418,34 +1431,34 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
+      <c r="AK5" s="2">
+        <v>1</v>
+      </c>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45062</v>
+        <v>45294</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1454,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1502,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="BP5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6">
@@ -1519,31 +1532,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1">
-        <v>45263</v>
+        <v>45354</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1573,22 +1586,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -1597,13 +1612,11 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
-      <c r="AK6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1611,17 +1624,17 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45294</v>
+        <v>45369</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" s="2">
         <v>4</v>
@@ -1681,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
@@ -1698,31 +1711,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1">
-        <v>45354</v>
+        <v>45263</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1731,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1752,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1769,7 +1782,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -1782,7 +1795,7 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
@@ -1790,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45370</v>
+        <v>45294</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1800,22 +1813,22 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
         <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -1860,16 +1873,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
@@ -1877,31 +1890,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1">
-        <v>45354</v>
+        <v>45270</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -1931,13 +1944,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1948,7 +1961,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -1961,7 +1974,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -1969,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45370</v>
+        <v>45308</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1979,11 +1992,11 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW8" s="2">
         <v>4</v>
       </c>
-      <c r="AW8" s="2">
-        <v>2</v>
-      </c>
       <c r="AX8" s="2">
         <v>1</v>
       </c>
@@ -2039,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -2056,31 +2069,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1">
-        <v>45270</v>
+        <v>45041</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2089,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2110,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2127,7 +2140,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -2140,15 +2153,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45308</v>
+        <v>45062</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2158,10 +2173,10 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2170,10 +2185,10 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2218,16 +2233,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
@@ -2235,31 +2250,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1">
-        <v>45300</v>
+        <v>45354</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2268,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -2289,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2306,12 +2321,10 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2321,7 +2334,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
@@ -2329,23 +2342,23 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45317</v>
+        <v>45370</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
         <v>1</v>
@@ -2399,16 +2412,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
@@ -2416,31 +2429,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1">
-        <v>45244</v>
+        <v>45300</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2449,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -2470,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2487,10 +2500,12 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2500,7 +2515,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2508,17 +2523,17 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45260</v>
+        <v>45317</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW11" s="2">
         <v>2</v>
@@ -2578,16 +2593,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12">
@@ -2595,37 +2610,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1">
-        <v>45034</v>
+        <v>45260</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2646,71 +2661,73 @@
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+      <c r="AJ12" s="2">
+        <v>1</v>
+      </c>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45050</v>
+        <v>45316</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -2755,22 +2772,22 @@
         <v>0</v>
       </c>
       <c r="BN12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -2778,31 +2795,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1">
-        <v>45041</v>
+        <v>45328</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -2832,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2849,7 +2866,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -2862,30 +2879,28 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45077</v>
+        <v>45336</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -2894,13 +2909,13 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="2">
         <v>0</v>
@@ -2912,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2927,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="2">
         <v>0</v>
@@ -2942,16 +2957,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
@@ -2959,31 +2974,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1">
-        <v>45252</v>
+        <v>45349</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3013,24 +3028,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -3043,17 +3056,15 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45261</v>
+        <v>45369</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3063,10 +3074,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3075,10 +3086,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3093,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3123,16 +3134,16 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -3140,43 +3151,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1">
-        <v>45029</v>
+        <v>45286</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3185,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3194,26 +3205,26 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD15" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3224,17 +3235,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AO15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45050</v>
+        <v>45308</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3244,7 +3255,7 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW15" s="2">
         <v>1</v>
@@ -3253,13 +3264,13 @@
         <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3271,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3304,16 +3315,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -3321,31 +3332,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1">
-        <v>45069</v>
+        <v>45354</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3375,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3392,7 +3403,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -3405,27 +3416,25 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45089</v>
+        <v>45369</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" s="2">
         <v>3</v>
@@ -3485,16 +3494,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
@@ -3502,31 +3511,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1">
-        <v>45034</v>
+        <v>45354</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3535,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -3556,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3573,11 +3582,9 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
@@ -3588,17 +3595,15 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45050</v>
+        <v>45369</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -3608,10 +3613,10 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -3620,10 +3625,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -3668,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
@@ -3685,31 +3690,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1">
-        <v>45270</v>
+        <v>45026</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -3739,24 +3744,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -3769,28 +3772,30 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45308</v>
+        <v>45032</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AW18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3817,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -3832,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="BK18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="2">
         <v>0</v>
@@ -3847,16 +3852,16 @@
         <v>0</v>
       </c>
       <c r="BP18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
@@ -3864,31 +3869,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1">
         <v>45252</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -3918,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -3935,7 +3940,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -3948,7 +3953,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4026,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="BP19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
@@ -4043,31 +4048,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1">
-        <v>45069</v>
+        <v>45060</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4097,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4114,7 +4119,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -4127,33 +4132,31 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="AS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="2">
         <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW20" s="2">
         <v>2</v>
       </c>
-      <c r="AW20" s="2">
-        <v>0</v>
-      </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
         <v>1</v>
@@ -4207,16 +4210,16 @@
         <v>0</v>
       </c>
       <c r="BP20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -4224,31 +4227,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1">
-        <v>45252</v>
+        <v>45315</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -4278,76 +4281,70 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
-      <c r="AM21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45259</v>
+        <v>45336</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -4365,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="BG21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH21" s="2">
         <v>0</v>
@@ -4392,16 +4389,16 @@
         <v>0</v>
       </c>
       <c r="BP21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
@@ -4409,31 +4406,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F22" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4442,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -4463,55 +4460,61 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>1</v>
+      </c>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
+      <c r="AM22" s="2">
+        <v>1</v>
+      </c>
       <c r="AN22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>1</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45369</v>
+        <v>45259</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW22" s="2">
         <v>3</v>
@@ -4523,10 +4526,10 @@
         <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -4571,16 +4574,16 @@
         <v>0</v>
       </c>
       <c r="BP22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
@@ -4588,31 +4591,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1">
-        <v>45041</v>
+        <v>45312</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4642,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4659,9 +4662,11 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD23" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -4672,7 +4677,7 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
@@ -4680,17 +4685,17 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45077</v>
+        <v>45348</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW23" s="2">
         <v>2</v>
@@ -4705,10 +4710,10 @@
         <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="2">
         <v>0</v>
@@ -4720,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="BF23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -4735,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL23" s="2">
         <v>0</v>
@@ -4750,16 +4755,16 @@
         <v>0</v>
       </c>
       <c r="BP23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24">
@@ -4767,31 +4772,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F24" s="1">
-        <v>45041</v>
+        <v>45354</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -4800,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -4821,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -4838,7 +4843,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
@@ -4851,7 +4856,7 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
@@ -4859,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45062</v>
+        <v>45369</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -4869,11 +4874,11 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW24" s="2">
         <v>3</v>
       </c>
-      <c r="AW24" s="2">
-        <v>2</v>
-      </c>
       <c r="AX24" s="2">
         <v>1</v>
       </c>
@@ -4899,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -4929,16 +4934,16 @@
         <v>0</v>
       </c>
       <c r="BP24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
@@ -4946,31 +4951,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1">
-        <v>45354</v>
+        <v>45069</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -4979,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -5000,13 +5005,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5017,10 +5022,12 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -5030,7 +5037,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
@@ -5038,20 +5045,20 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45369</v>
+        <v>45089</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX25" s="2">
         <v>1</v>
@@ -5093,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL25" s="2">
         <v>0</v>
@@ -5108,16 +5115,16 @@
         <v>0</v>
       </c>
       <c r="BP25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26">
@@ -5125,31 +5132,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1">
-        <v>45315</v>
+        <v>45041</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -5179,13 +5186,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -5196,7 +5203,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -5209,7 +5216,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -5217,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45336</v>
+        <v>45062</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5227,13 +5234,13 @@
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AW26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="2">
         <v>1</v>
@@ -5257,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="BF26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH26" s="2">
         <v>0</v>
@@ -5287,16 +5294,16 @@
         <v>0</v>
       </c>
       <c r="BP26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27">
@@ -5304,28 +5311,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="1">
-        <v>45272</v>
+        <v>45365</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>80</v>
@@ -5334,10 +5341,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -5358,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -5375,32 +5382,28 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
-      <c r="AI27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45294</v>
+        <v>45394</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -5410,10 +5413,10 @@
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX27" s="2">
         <v>1</v>
@@ -5443,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -5470,16 +5473,16 @@
         <v>0</v>
       </c>
       <c r="BP27" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR27" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS27" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28">
@@ -5487,43 +5490,43 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F28" s="1">
-        <v>45271</v>
+        <v>45029</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5532,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -5541,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -5558,12 +5561,10 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AD28" s="2"/>
-      <c r="AE28" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
@@ -5573,7 +5574,7 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AO28" s="2">
         <v>0</v>
@@ -5583,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45294</v>
+        <v>45050</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
@@ -5596,19 +5597,19 @@
         <v>4</v>
       </c>
       <c r="AW28" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="2">
         <v>0</v>
@@ -5620,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="BE28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG28" s="2">
         <v>0</v>
@@ -5653,16 +5654,16 @@
         <v>0</v>
       </c>
       <c r="BP28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29">
@@ -5670,31 +5671,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1">
         <v>45263</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -5724,13 +5725,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -5741,7 +5742,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
@@ -5756,7 +5757,7 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AO29" s="2">
         <v>0</v>
@@ -5836,16 +5837,16 @@
         <v>0</v>
       </c>
       <c r="BP29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
@@ -5853,31 +5854,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F30" s="1">
-        <v>45298</v>
+        <v>45034</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -5886,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -5907,13 +5908,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -5924,9 +5925,11 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD30" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -5937,7 +5940,7 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AO30" s="2">
         <v>0</v>
@@ -5947,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>45316</v>
+        <v>45050</v>
       </c>
       <c r="AS30" s="2">
         <v>1</v>
@@ -5957,7 +5960,7 @@
       </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW30" s="2">
         <v>3</v>
@@ -5969,10 +5972,10 @@
         <v>1</v>
       </c>
       <c r="AZ30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="2">
         <v>0</v>
@@ -6002,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="BK30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL30" s="2">
         <v>0</v>
@@ -6017,16 +6020,16 @@
         <v>0</v>
       </c>
       <c r="BP30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS30" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -6034,49 +6037,49 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F31" s="1">
-        <v>45329</v>
+        <v>45333</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="2">
         <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="2">
         <v>0</v>
@@ -6088,81 +6091,83 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-      <c r="Y31" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
+      <c r="AA31" s="2">
+        <v>1</v>
+      </c>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD31" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
-      <c r="AK31" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO31" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>0</v>
+      </c>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" s="1">
-        <v>45369</v>
+        <v>45364</v>
       </c>
       <c r="AS31" s="2">
         <v>1</v>
       </c>
       <c r="AT31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW31" s="2">
         <v>2</v>
       </c>
       <c r="AX31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="2">
         <v>0</v>
       </c>
       <c r="BC31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE31" s="2">
         <v>0</v>
@@ -6198,16 +6203,16 @@
         <v>0</v>
       </c>
       <c r="BP31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32">
@@ -6215,31 +6220,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1">
-        <v>45354</v>
+        <v>45312</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K32" s="2">
         <v>1</v>
@@ -6248,10 +6253,10 @@
         <v>1</v>
       </c>
       <c r="M32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
@@ -6260,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
@@ -6269,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -6286,10 +6291,12 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
+      <c r="AE32" s="2">
+        <v>1</v>
+      </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
@@ -6299,7 +6306,7 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
@@ -6307,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="1">
-        <v>45369</v>
+        <v>45316</v>
       </c>
       <c r="AS32" s="2">
         <v>1</v>
@@ -6317,22 +6324,22 @@
       </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW32" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY32" s="2">
         <v>1</v>
       </c>
       <c r="AZ32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="2">
         <v>0</v>
@@ -6344,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="BE32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG32" s="2">
         <v>0</v>
@@ -6377,16 +6384,16 @@
         <v>0</v>
       </c>
       <c r="BP32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33">
@@ -6394,31 +6401,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F33" s="1">
         <v>45069</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -6427,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -6448,13 +6455,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -6465,12 +6472,10 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="AD33" s="2"/>
-      <c r="AE33" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
@@ -6480,43 +6485,45 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO33" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>0</v>
+      </c>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" s="1">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="AS33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2">
         <v>2</v>
       </c>
       <c r="AW33" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="2">
         <v>1</v>
       </c>
       <c r="AZ33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="2">
         <v>1</v>
       </c>
       <c r="BB33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC33" s="2">
         <v>0</v>
@@ -6558,16 +6565,16 @@
         <v>0</v>
       </c>
       <c r="BP33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34">
@@ -6575,31 +6582,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F34" s="1">
-        <v>45270</v>
+        <v>45298</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -6608,10 +6615,10 @@
         <v>1</v>
       </c>
       <c r="M34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
@@ -6620,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2">
         <v>0</v>
@@ -6629,24 +6636,24 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-      <c r="Y34" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
+      <c r="AA34" s="2">
+        <v>1</v>
+      </c>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
@@ -6659,15 +6666,17 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO34" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>1</v>
+      </c>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" s="1">
-        <v>45308</v>
+        <v>45317</v>
       </c>
       <c r="AS34" s="2">
         <v>1</v>
@@ -6677,22 +6686,22 @@
       </c>
       <c r="AU34" s="2"/>
       <c r="AV34" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW34" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="2">
         <v>0</v>
@@ -6704,10 +6713,10 @@
         <v>0</v>
       </c>
       <c r="BE34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG34" s="2">
         <v>0</v>
@@ -6737,16 +6746,16 @@
         <v>0</v>
       </c>
       <c r="BP34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35">
@@ -6754,31 +6763,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F35" s="1">
-        <v>45298</v>
+        <v>45354</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -6787,10 +6796,10 @@
         <v>1</v>
       </c>
       <c r="M35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
@@ -6799,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
@@ -6808,24 +6817,24 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
+      <c r="Y35" s="2">
+        <v>1</v>
+      </c>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
@@ -6838,42 +6847,40 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO35" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" s="1">
-        <v>45317</v>
+        <v>45370</v>
       </c>
       <c r="AS35" s="2">
         <v>1</v>
       </c>
       <c r="AT35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="2"/>
       <c r="AV35" s="2">
         <v>3</v>
       </c>
       <c r="AW35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35" s="2">
         <v>0</v>
@@ -6885,10 +6892,10 @@
         <v>0</v>
       </c>
       <c r="BE35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG35" s="2">
         <v>0</v>
@@ -6918,16 +6925,16 @@
         <v>0</v>
       </c>
       <c r="BP35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR35" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS35" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36">
@@ -6935,31 +6942,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F36" s="1">
-        <v>45312</v>
+        <v>45354</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -6968,10 +6975,10 @@
         <v>1</v>
       </c>
       <c r="M36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
@@ -6980,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="2">
         <v>0</v>
@@ -6989,13 +6996,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="U36" s="2">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -7006,12 +7013,10 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AD36" s="2"/>
-      <c r="AE36" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
@@ -7021,7 +7026,7 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
@@ -7029,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="AR36" s="1">
-        <v>45316</v>
+        <v>45369</v>
       </c>
       <c r="AS36" s="2">
         <v>1</v>
@@ -7039,22 +7044,22 @@
       </c>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY36" s="2">
         <v>1</v>
       </c>
       <c r="AZ36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36" s="2">
         <v>0</v>
@@ -7066,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="BE36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG36" s="2">
         <v>0</v>
@@ -7084,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL36" s="2">
         <v>0</v>
@@ -7099,16 +7104,16 @@
         <v>0</v>
       </c>
       <c r="BP36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -7116,43 +7121,43 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F37" s="1">
-        <v>45045</v>
+        <v>45041</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
       </c>
       <c r="N37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
@@ -7161,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="2">
         <v>0</v>
@@ -7170,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
@@ -7187,7 +7192,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
@@ -7200,7 +7205,7 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AO37" s="2">
         <v>0</v>
@@ -7210,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="AR37" s="1">
-        <v>45062</v>
+        <v>45077</v>
       </c>
       <c r="AS37" s="2">
         <v>1</v>
@@ -7220,25 +7225,25 @@
       </c>
       <c r="AU37" s="2"/>
       <c r="AV37" s="2">
+        <v>12</v>
+      </c>
+      <c r="AW37" s="2">
         <v>3</v>
       </c>
-      <c r="AW37" s="2">
-        <v>1</v>
-      </c>
       <c r="AX37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37" s="2">
         <v>0</v>
       </c>
       <c r="BA37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC37" s="2">
         <v>0</v>
@@ -7247,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF37" s="2">
         <v>1</v>
@@ -7265,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL37" s="2">
         <v>0</v>
@@ -7280,16 +7285,16 @@
         <v>0</v>
       </c>
       <c r="BP37" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR37" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38">
@@ -7297,19 +7302,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F38" s="1">
-        <v>45286</v>
+        <v>45252</v>
       </c>
       <c r="G38" t="s">
         <v>72</v>
@@ -7318,10 +7323,10 @@
         <v>72</v>
       </c>
       <c r="I38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -7351,26 +7356,26 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
+      <c r="Y38" s="2">
+        <v>1</v>
+      </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
@@ -7381,17 +7386,15 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO38" s="2">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" s="1">
-        <v>45308</v>
+        <v>45260</v>
       </c>
       <c r="AS38" s="2">
         <v>1</v>
@@ -7404,10 +7407,10 @@
         <v>3</v>
       </c>
       <c r="AW38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY38" s="2">
         <v>1</v>
@@ -7461,16 +7464,16 @@
         <v>0</v>
       </c>
       <c r="BP38" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39">
@@ -7478,31 +7481,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F39" s="1">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K39" s="2">
         <v>1</v>
@@ -7511,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
@@ -7532,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -7549,7 +7552,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
@@ -7562,7 +7565,7 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
@@ -7570,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="AR39" s="1">
-        <v>45294</v>
+        <v>45308</v>
       </c>
       <c r="AS39" s="2">
         <v>1</v>
@@ -7580,11 +7583,11 @@
       </c>
       <c r="AU39" s="2"/>
       <c r="AV39" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW39" s="2">
         <v>3</v>
       </c>
-      <c r="AW39" s="2">
-        <v>1</v>
-      </c>
       <c r="AX39" s="2">
         <v>1</v>
       </c>
@@ -7592,10 +7595,10 @@
         <v>1</v>
       </c>
       <c r="AZ39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB39" s="2">
         <v>0</v>
@@ -7640,16 +7643,16 @@
         <v>0</v>
       </c>
       <c r="BP39" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS39" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40">
@@ -7657,31 +7660,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F40" s="1">
-        <v>45270</v>
+        <v>45354</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -7711,13 +7714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="U40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -7728,7 +7731,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -7741,15 +7744,17 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO40" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>0</v>
+      </c>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" s="1">
-        <v>45308</v>
+        <v>45394</v>
       </c>
       <c r="AS40" s="2">
         <v>1</v>
@@ -7759,10 +7764,10 @@
       </c>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX40" s="2">
         <v>1</v>
@@ -7819,16 +7824,16 @@
         <v>0</v>
       </c>
       <c r="BP40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ40" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR40" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS40" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41">
@@ -7836,31 +7841,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F41" s="1">
-        <v>45252</v>
+        <v>45069</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K41" s="2">
         <v>1</v>
@@ -7890,13 +7895,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -7907,7 +7912,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
@@ -7920,28 +7925,30 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO41" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>0</v>
+      </c>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" s="1">
-        <v>45260</v>
+        <v>45089</v>
       </c>
       <c r="AS41" s="2">
         <v>1</v>
       </c>
       <c r="AT41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="2"/>
       <c r="AV41" s="2">
         <v>3</v>
       </c>
       <c r="AW41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX41" s="2">
         <v>1</v>
@@ -7998,16 +8005,16 @@
         <v>0</v>
       </c>
       <c r="BP41" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42">
@@ -8015,31 +8022,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F42" s="1">
-        <v>45340</v>
+        <v>45034</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K42" s="2">
         <v>1</v>
@@ -8048,7 +8055,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -8069,13 +8076,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -8086,9 +8093,11 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD42" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>0</v>
+      </c>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
@@ -8099,7 +8108,7 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AO42" s="2">
         <v>0</v>
@@ -8109,35 +8118,35 @@
         <v>0</v>
       </c>
       <c r="AR42" s="1">
-        <v>45369</v>
+        <v>45054</v>
       </c>
       <c r="AS42" s="2">
         <v>1</v>
       </c>
       <c r="AT42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU42" s="2"/>
       <c r="AV42" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW42" s="2">
         <v>3</v>
       </c>
       <c r="AX42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="2">
         <v>1</v>
       </c>
       <c r="AZ42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="2">
         <v>1</v>
       </c>
       <c r="BB42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC42" s="2">
         <v>0</v>
@@ -8179,16 +8188,16 @@
         <v>0</v>
       </c>
       <c r="BP42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43">
@@ -8196,40 +8205,40 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F43" s="1">
-        <v>45354</v>
+        <v>45272</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K43" s="2">
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -8250,13 +8259,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -8267,41 +8276,45 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
+      <c r="AI43" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO43" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO43" s="2">
+        <v>0</v>
+      </c>
       <c r="AP43" s="2"/>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" s="1">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="AS43" s="2">
         <v>1</v>
       </c>
       <c r="AT43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="2"/>
       <c r="AV43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW43" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX43" s="2">
         <v>1</v>
@@ -8331,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="BG43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH43" s="2">
         <v>0</v>
@@ -8358,16 +8371,16 @@
         <v>0</v>
       </c>
       <c r="BP43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ43" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44">
@@ -8375,31 +8388,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F44" s="1">
-        <v>45034</v>
+        <v>45270</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K44" s="2">
         <v>1</v>
@@ -8408,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -8429,13 +8442,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -8446,11 +8459,9 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
@@ -8461,45 +8472,43 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO44" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" s="1">
-        <v>45054</v>
+        <v>45308</v>
       </c>
       <c r="AS44" s="2">
         <v>1</v>
       </c>
       <c r="AT44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="2"/>
       <c r="AV44" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW44" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY44" s="2">
         <v>1</v>
       </c>
       <c r="AZ44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA44" s="2">
         <v>1</v>
       </c>
       <c r="BB44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC44" s="2">
         <v>0</v>
@@ -8541,16 +8550,16 @@
         <v>0</v>
       </c>
       <c r="BP44" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR44" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS44" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45">
@@ -8558,31 +8567,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F45" s="1">
-        <v>45349</v>
+        <v>45354</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -8591,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -8612,22 +8621,24 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U45" s="2">
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
+      <c r="Y45" s="2">
+        <v>1</v>
+      </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
@@ -8640,7 +8651,7 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
@@ -8658,10 +8669,10 @@
       </c>
       <c r="AU45" s="2"/>
       <c r="AV45" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX45" s="2">
         <v>1</v>
@@ -8688,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="BF45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG45" s="2">
         <v>0</v>
@@ -8718,16 +8729,16 @@
         <v>0</v>
       </c>
       <c r="BP45" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ45" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR45" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS45" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46">
@@ -8735,49 +8746,49 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F46" s="1">
-        <v>45333</v>
+        <v>45340</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="2">
         <v>0</v>
@@ -8789,28 +8800,26 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
+      <c r="Y46" s="2">
+        <v>1</v>
+      </c>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
@@ -8821,7 +8830,7 @@
       <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AO46" s="2">
         <v>0</v>
@@ -8831,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="1">
-        <v>45364</v>
+        <v>45369</v>
       </c>
       <c r="AS46" s="2">
         <v>1</v>
@@ -8841,31 +8850,31 @@
       </c>
       <c r="AU46" s="2"/>
       <c r="AV46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB46" s="2">
         <v>0</v>
       </c>
       <c r="BC46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE46" s="2">
         <v>0</v>
@@ -8901,16 +8910,16 @@
         <v>0</v>
       </c>
       <c r="BP46" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR46" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47">
@@ -8918,31 +8927,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F47" s="1">
-        <v>45354</v>
+        <v>45252</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K47" s="2">
         <v>1</v>
@@ -8951,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="M47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -8972,13 +8981,13 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -8989,7 +8998,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
@@ -9002,15 +9011,17 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO47" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO47" s="2">
+        <v>0</v>
+      </c>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="2">
         <v>0</v>
       </c>
       <c r="AR47" s="1">
-        <v>45370</v>
+        <v>45261</v>
       </c>
       <c r="AS47" s="2">
         <v>1</v>
@@ -9020,10 +9031,10 @@
       </c>
       <c r="AU47" s="2"/>
       <c r="AV47" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW47" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX47" s="2">
         <v>1</v>
@@ -9032,10 +9043,10 @@
         <v>1</v>
       </c>
       <c r="AZ47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="2">
         <v>0</v>
@@ -9080,16 +9091,16 @@
         <v>0</v>
       </c>
       <c r="BP47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS47" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48">
@@ -9097,43 +9108,43 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F48" s="1">
-        <v>45069</v>
+        <v>45045</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="2">
         <v>0</v>
@@ -9142,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2">
         <v>0</v>
@@ -9151,13 +9162,13 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -9168,7 +9179,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
@@ -9181,7 +9192,7 @@
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AO48" s="2">
         <v>0</v>
@@ -9191,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="AR48" s="1">
-        <v>45096</v>
+        <v>45062</v>
       </c>
       <c r="AS48" s="2">
         <v>1</v>
@@ -9201,22 +9212,22 @@
       </c>
       <c r="AU48" s="2"/>
       <c r="AV48" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="2">
         <v>0</v>
@@ -9228,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="BE48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG48" s="2">
         <v>0</v>
@@ -9261,16 +9272,16 @@
         <v>0</v>
       </c>
       <c r="BP48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR48" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS48" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49">
@@ -9278,40 +9289,40 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F49" s="1">
-        <v>45260</v>
+        <v>45319</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="2">
         <v>0</v>
@@ -9329,79 +9340,75 @@
         <v>0</v>
       </c>
       <c r="S49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="U49" s="2">
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
+      <c r="Y49" s="2">
+        <v>1</v>
+      </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
-      <c r="AJ49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO49" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AO49" s="2">
+        <v>1</v>
+      </c>
       <c r="AP49" s="2"/>
       <c r="AQ49" s="2">
         <v>0</v>
       </c>
       <c r="AR49" s="1">
-        <v>45316</v>
+        <v>45336</v>
       </c>
       <c r="AS49" s="2">
         <v>1</v>
       </c>
       <c r="AT49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU49" s="2"/>
       <c r="AV49" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW49" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB49" s="2">
         <v>0</v>
@@ -9419,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="BG49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH49" s="2">
         <v>0</v>
@@ -9440,22 +9447,22 @@
         <v>0</v>
       </c>
       <c r="BN49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50">
@@ -9463,31 +9470,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F50" s="1">
-        <v>45354</v>
+        <v>45270</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K50" s="2">
         <v>1</v>
@@ -9517,13 +9524,13 @@
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U50" s="2">
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -9534,7 +9541,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -9547,7 +9554,7 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
@@ -9555,17 +9562,17 @@
         <v>0</v>
       </c>
       <c r="AR50" s="1">
-        <v>45369</v>
+        <v>45308</v>
       </c>
       <c r="AS50" s="2">
         <v>1</v>
       </c>
       <c r="AT50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU50" s="2"/>
       <c r="AV50" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW50" s="2">
         <v>3</v>
@@ -9625,16 +9632,16 @@
         <v>0</v>
       </c>
       <c r="BP50" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51">
@@ -9642,31 +9649,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F51" s="1">
-        <v>45026</v>
+        <v>45354</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
@@ -9696,22 +9703,24 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
+      <c r="Y51" s="2">
+        <v>1</v>
+      </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
@@ -9724,30 +9733,28 @@
       <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
       <c r="AN51" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO51" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
       <c r="AQ51" s="2">
         <v>0</v>
       </c>
       <c r="AR51" s="1">
-        <v>45032</v>
+        <v>45369</v>
       </c>
       <c r="AS51" s="2">
         <v>1</v>
       </c>
       <c r="AT51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="2"/>
       <c r="AV51" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AW51" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX51" s="2">
         <v>1</v>
@@ -9774,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51" s="2">
         <v>0</v>
@@ -9789,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="BK51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL51" s="2">
         <v>0</v>
@@ -9804,16 +9811,16 @@
         <v>0</v>
       </c>
       <c r="BP51" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR51" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52">
@@ -9821,31 +9828,31 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F52" s="1">
-        <v>45060</v>
+        <v>45069</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K52" s="2">
         <v>1</v>
@@ -9875,13 +9882,13 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
@@ -9892,7 +9899,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
@@ -9905,15 +9912,17 @@
       <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
       <c r="AN52" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO52" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO52" s="2">
+        <v>0</v>
+      </c>
       <c r="AP52" s="2"/>
       <c r="AQ52" s="2">
         <v>0</v>
       </c>
       <c r="AR52" s="1">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="AS52" s="2">
         <v>1</v>
@@ -9923,7 +9932,7 @@
       </c>
       <c r="AU52" s="2"/>
       <c r="AV52" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW52" s="2">
         <v>2</v>
@@ -9935,13 +9944,13 @@
         <v>1</v>
       </c>
       <c r="AZ52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA52" s="2">
         <v>1</v>
       </c>
       <c r="BB52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="2">
         <v>0</v>
@@ -9983,16 +9992,16 @@
         <v>0</v>
       </c>
       <c r="BP52" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR52" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS52" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53">
@@ -10000,31 +10009,31 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F53" s="1">
-        <v>45354</v>
+        <v>45329</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K53" s="2">
         <v>1</v>
@@ -10054,13 +10063,13 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
@@ -10071,7 +10080,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -10080,11 +10089,13 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
-      <c r="AK53" s="2"/>
+      <c r="AK53" s="2">
+        <v>1</v>
+      </c>
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
       <c r="AN53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
@@ -10098,14 +10109,14 @@
         <v>1</v>
       </c>
       <c r="AT53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU53" s="2"/>
       <c r="AV53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX53" s="2">
         <v>1</v>
@@ -10162,16 +10173,16 @@
         <v>0</v>
       </c>
       <c r="BP53" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR53" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS53" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54">
@@ -10179,31 +10190,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F54" s="1">
-        <v>45312</v>
+        <v>45298</v>
       </c>
       <c r="G54" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K54" s="2">
         <v>1</v>
@@ -10212,7 +10223,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
@@ -10233,13 +10244,13 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U54" s="2">
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
@@ -10250,11 +10261,9 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD54" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
@@ -10265,28 +10274,30 @@
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
       <c r="AN54" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO54" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO54" s="2">
+        <v>0</v>
+      </c>
       <c r="AP54" s="2"/>
       <c r="AQ54" s="2">
         <v>0</v>
       </c>
       <c r="AR54" s="1">
-        <v>45348</v>
+        <v>45316</v>
       </c>
       <c r="AS54" s="2">
         <v>1</v>
       </c>
       <c r="AT54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU54" s="2"/>
       <c r="AV54" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX54" s="2">
         <v>1</v>
@@ -10295,10 +10306,10 @@
         <v>1</v>
       </c>
       <c r="AZ54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB54" s="2">
         <v>0</v>
@@ -10328,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="BK54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL54" s="2">
         <v>0</v>
@@ -10343,16 +10354,16 @@
         <v>0</v>
       </c>
       <c r="BP54" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ54" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR54" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55">
@@ -10360,31 +10371,31 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F55" s="1">
         <v>45354</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K55" s="2">
         <v>1</v>
@@ -10414,13 +10425,13 @@
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U55" s="2">
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
@@ -10431,7 +10442,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
@@ -10444,7 +10455,7 @@
       <c r="AL55" s="2"/>
       <c r="AM55" s="2"/>
       <c r="AN55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
@@ -10452,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="AR55" s="1">
-        <v>45369</v>
+        <v>45394</v>
       </c>
       <c r="AS55" s="2">
         <v>1</v>
@@ -10462,13 +10473,13 @@
       </c>
       <c r="AU55" s="2"/>
       <c r="AV55" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW55" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="2">
         <v>1</v>
@@ -10522,16 +10533,16 @@
         <v>0</v>
       </c>
       <c r="BP55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BQ55" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BR55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BS55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56">
@@ -10542,28 +10553,28 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F56" s="1">
-        <v>45326</v>
+        <v>45041</v>
       </c>
       <c r="G56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I56" s="2">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K56" s="2">
         <v>1</v>
@@ -10572,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2">
         <v>0</v>
@@ -10593,13 +10604,13 @@
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U56" s="2">
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
@@ -10610,7 +10621,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
       <c r="AC56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -10623,7 +10634,7 @@
       <c r="AL56" s="2"/>
       <c r="AM56" s="2"/>
       <c r="AN56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
@@ -10631,86 +10642,623 @@
         <v>0</v>
       </c>
       <c r="AR56" s="1">
-        <v>45336</v>
+        <v>45077</v>
       </c>
       <c r="AS56" s="2">
         <v>1</v>
       </c>
       <c r="AT56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU56" s="2"/>
       <c r="AV56" s="2">
+        <v>9</v>
+      </c>
+      <c r="AW56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA56" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB56" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF56" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK56" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP56" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ56" t="s">
+        <v>167</v>
+      </c>
+      <c r="BR56" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45354</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>75</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" t="s">
+        <v>105</v>
+      </c>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="2"/>
+      <c r="AQ57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="1">
+        <v>45370</v>
+      </c>
+      <c r="AS57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU57" s="2"/>
+      <c r="AV57" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW57" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ57" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA57" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP57" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ57" t="s">
+        <v>167</v>
+      </c>
+      <c r="BR57" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="1">
+        <v>45354</v>
+      </c>
+      <c r="G58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>80</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" t="s">
+        <v>75</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" t="s">
+        <v>105</v>
+      </c>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="2"/>
+      <c r="AM58" s="2"/>
+      <c r="AN58" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO58" s="2"/>
+      <c r="AP58" s="2"/>
+      <c r="AQ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="1">
+        <v>45370</v>
+      </c>
+      <c r="AS58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU58" s="2"/>
+      <c r="AV58" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW58" s="2">
         <v>3</v>
       </c>
-      <c r="AW56" s="2">
+      <c r="AX58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP58" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ58" t="s">
+        <v>167</v>
+      </c>
+      <c r="BR58" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="1">
+        <v>45326</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>80</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" t="s">
+        <v>75</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+      <c r="V59" t="s">
+        <v>105</v>
+      </c>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="2"/>
+      <c r="AQ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="1">
+        <v>45336</v>
+      </c>
+      <c r="AS59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="2"/>
+      <c r="AV59" s="2">
         <v>3</v>
       </c>
-      <c r="AX56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ56" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA56" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP56" t="s">
-        <v>162</v>
-      </c>
-      <c r="BQ56" t="s">
-        <v>164</v>
-      </c>
-      <c r="BR56" t="s">
+      <c r="AW59" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP59" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ59" t="s">
         <v>167</v>
       </c>
-      <c r="BS56" t="s">
+      <c r="BR59" t="s">
         <v>170</v>
+      </c>
+      <c r="BS59" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
